--- a/biology/Zoologie/Charinus_tingomaria/Charinus_tingomaria.xlsx
+++ b/biology/Zoologie/Charinus_tingomaria/Charinus_tingomaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus tingomaria est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la région de Huánuco au Pérou[1]. Elle se rencontre dans le parc national Tingo María dans la grotte Cueva de las Lechuzas à 673 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la région de Huánuco au Pérou. Elle se rencontre dans le parc national Tingo María dans la grotte Cueva de las Lechuzas à 673 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 9,75 mm, les mâles mesurent de 9,26 à 9,99 mm et les femelles de 9,04 à 9,75 mm, la carapace des mâles mesure de 3,23 à 3,88 mm de long sur de 4,41 à 5,15 mm et celle des femelles de 2,98 à 3,24 mm de long sur de 4,02 à 4,07 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 9,75 mm, les mâles mesurent de 9,26 à 9,99 mm et les femelles de 9,04 à 9,75 mm, la carapace des mâles mesure de 3,23 à 3,88 mm de long sur de 4,41 à 5,15 mm et celle des femelles de 2,98 à 3,24 mm de long sur de 4,02 à 4,07 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le parc national Tingo María.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ballón-Estacio &amp; Armas, 2019 : « Una especie nueva de Charinus (Amblypygi: Charinidae) del departamento de Huánuco, Perú. » Revista Ibérica de Aracnología, vol. 35, p. 15–19.</t>
         </is>
